--- a/Sample-data-sets-for-linear-regression1.xlsx
+++ b/Sample-data-sets-for-linear-regression1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\OneDrive\Future\Portfolio\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8280" tabRatio="635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8280" tabRatio="635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="18" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Transit demand" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -737,11 +736,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="436480648"/>
-        <c:axId val="436479864"/>
+        <c:axId val="330639136"/>
+        <c:axId val="330640704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="436480648"/>
+        <c:axId val="330639136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,12 +797,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436479864"/>
+        <c:crossAx val="330640704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436479864"/>
+        <c:axId val="330640704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436480648"/>
+        <c:crossAx val="330639136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1170,11 +1169,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="333152440"/>
-        <c:axId val="333154400"/>
+        <c:axId val="330639528"/>
+        <c:axId val="330639920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="333152440"/>
+        <c:axId val="330639528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,12 +1230,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333154400"/>
+        <c:crossAx val="330639920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="333154400"/>
+        <c:axId val="330639920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333152440"/>
+        <c:crossAx val="330639528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1371,9 +1370,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1407,55 +1408,36 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -1649,11 +1631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="436469280"/>
-        <c:axId val="334712416"/>
+        <c:axId val="330641488"/>
+        <c:axId val="330637960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="436469280"/>
+        <c:axId val="330641488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100000"/>
@@ -1664,9 +1646,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1682,9 +1665,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1698,7 +1680,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1708,12 +1692,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334712416"/>
+        <c:crossAx val="330637960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334712416"/>
+        <c:axId val="330637960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,9 +1707,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1739,13 +1724,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1756,7 +1741,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1766,7 +1753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436469280"/>
+        <c:crossAx val="330641488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1784,11 +1771,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2106,11 +2096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429840672"/>
-        <c:axId val="429839888"/>
+        <c:axId val="330643056"/>
+        <c:axId val="330643448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429840672"/>
+        <c:axId val="330643056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,12 +2157,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429839888"/>
+        <c:crossAx val="330643448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429839888"/>
+        <c:axId val="330643448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429840672"/>
+        <c:crossAx val="330643056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2320,12 +2310,12 @@
               <a:t> of the city Vs </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Number of weekly riders</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2591,11 +2581,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39877512"/>
-        <c:axId val="39874376"/>
+        <c:axId val="330637176"/>
+        <c:axId val="332466840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39877512"/>
+        <c:axId val="330637176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,12 +2642,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39874376"/>
+        <c:crossAx val="332466840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39874376"/>
+        <c:axId val="332466840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2714,7 +2704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39877512"/>
+        <c:crossAx val="330637176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3074,11 +3064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429829696"/>
-        <c:axId val="429829304"/>
+        <c:axId val="332459784"/>
+        <c:axId val="332465664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429829696"/>
+        <c:axId val="332459784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3135,12 +3125,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429829304"/>
+        <c:crossAx val="332465664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429829304"/>
+        <c:axId val="332465664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429829696"/>
+        <c:crossAx val="332459784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3548,11 +3538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428803536"/>
-        <c:axId val="428805104"/>
+        <c:axId val="332462528"/>
+        <c:axId val="332462136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428803536"/>
+        <c:axId val="332462528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3609,12 +3599,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428805104"/>
+        <c:crossAx val="332462136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428805104"/>
+        <c:axId val="332462136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3671,7 +3661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428803536"/>
+        <c:crossAx val="332462528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5033,13 +5023,15 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
@@ -5048,12 +5040,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5062,36 +5071,15 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -5100,22 +5088,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -5123,72 +5107,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5204,14 +5247,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5223,83 +5268,83 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5311,16 +5356,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5329,17 +5376,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5348,16 +5394,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5366,7 +5412,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -5375,7 +5423,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -5383,7 +5431,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5391,19 +5439,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5411,17 +5450,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5430,9 +5468,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5441,12 +5481,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -5456,7 +5498,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -5465,19 +5509,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5486,26 +5532,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -8096,8 +8145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8523,7 +8572,7 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -8916,14 +8965,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -9548,8 +9601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sample-data-sets-for-linear-regression1.xlsx
+++ b/Sample-data-sets-for-linear-regression1.xlsx
@@ -14,15 +14,16 @@
   <sheets>
     <sheet name="Sheet3" sheetId="18" r:id="rId1"/>
     <sheet name="Interest rates and home prices" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="19" r:id="rId3"/>
-    <sheet name="Transit demand" sheetId="15" r:id="rId4"/>
+    <sheet name="first" sheetId="19" r:id="rId3"/>
+    <sheet name="second" sheetId="20" r:id="rId4"/>
+    <sheet name="Transit demand" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
   <si>
     <t>X1</t>
   </si>
@@ -239,16 +240,29 @@
   <si>
     <t>Predicted Number of weekly riders</t>
   </si>
+  <si>
+    <t>Standard Residuals</t>
+  </si>
+  <si>
+    <t>PROBABILITY OUTPUT</t>
+  </si>
+  <si>
+    <t>Percentile</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -425,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,6 +522,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +556,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -736,11 +751,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330639136"/>
-        <c:axId val="330640704"/>
+        <c:axId val="328675208"/>
+        <c:axId val="328673248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330639136"/>
+        <c:axId val="328675208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,12 +812,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330640704"/>
+        <c:crossAx val="328673248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330640704"/>
+        <c:axId val="328673248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,7 +874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330639136"/>
+        <c:crossAx val="328675208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -908,7 +923,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -923,35 +938,23 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Population of city Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -963,198 +966,382 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Interest rates and home prices'!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Median home price</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Number of weekly riders</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="28575">
               <a:noFill/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.7495625546806648E-3"/>
-                  <c:y val="8.0599664625255182E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Interest rates and home prices'!$B$6:$B$21</c:f>
+              <c:f>'Transit demand'!$D$5:$D$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>10.3</c:v>
+                  <c:v>1800000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.3</c:v>
+                  <c:v>1790000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.1</c:v>
+                  <c:v>1780000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>1778000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4</c:v>
+                  <c:v>1750000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3</c:v>
+                  <c:v>1740000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4</c:v>
+                  <c:v>1725000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9</c:v>
+                  <c:v>1725000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6</c:v>
+                  <c:v>1720000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6</c:v>
+                  <c:v>1705000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9</c:v>
+                  <c:v>1710000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4</c:v>
+                  <c:v>1700000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1</c:v>
+                  <c:v>1695000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>1695000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.5</c:v>
+                  <c:v>1690000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.8</c:v>
+                  <c:v>1630000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1635000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1630000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1620000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1615000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1605000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1590000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1595000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1590000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1610000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Interest rates and home prices'!$C$6:$C$21</c:f>
+              <c:f>'Transit demand'!$B$5:$B$31</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>183800</c:v>
+                  <c:v>192000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183200</c:v>
+                  <c:v>190400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174900</c:v>
+                  <c:v>191200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173500</c:v>
+                  <c:v>177600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172900</c:v>
+                  <c:v>176800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>173200</c:v>
+                  <c:v>178400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>173200</c:v>
+                  <c:v>180800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169700</c:v>
+                  <c:v>175200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174500</c:v>
+                  <c:v>174400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>177900</c:v>
+                  <c:v>173920</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>188100</c:v>
+                  <c:v>172800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203200</c:v>
+                  <c:v>163200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>230200</c:v>
+                  <c:v>161600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>258200</c:v>
+                  <c:v>161600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>309800</c:v>
+                  <c:v>160800</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>329800</c:v>
+                  <c:v>159200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>136000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>126240</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123888</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126080</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>151680</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>152800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Number of weekly riders</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$D$5:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1790000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1780000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1778000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1750000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1740000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1725000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1725000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1705000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1710000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1695000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1695000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1690000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1630000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1635000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1630000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1620000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1615000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1605000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1590000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1595000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1590000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1610000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>second!$B$28:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>188848.91437411567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187778.95482738264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188493.83232660394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181358.58585173383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179755.16166812909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180691.27153467014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178521.21984697063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174553.05948624009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174018.07971287359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173435.69560240986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173150.81424982677</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164482.88936694516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>163981.42598460862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165916.90243958571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166144.20450253767</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162808.6866959499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145052.91059496789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119572.66688362251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>139910.41333053104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139417.94152506121</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>141874.82895483889</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138044.05835206644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>133915.03931461673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>127179.76334015554</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133969.26014448254</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>143180.19893509345</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154647.2201539799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,170 +1356,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330639528"/>
-        <c:axId val="330639920"/>
+        <c:axId val="417532664"/>
+        <c:axId val="417526000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330639528"/>
+        <c:axId val="417532664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population of city</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="330639920"/>
+        <c:crossAx val="417526000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330639920"/>
+        <c:axId val="417526000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of weekly riders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="330639528"/>
+        <c:crossAx val="417532664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1341,7 +1445,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1356,34 +1460,23 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monthly income of riders Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1395,55 +1488,299 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$C$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Residuals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Number of weekly riders</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575">
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$B$28:$B$54</c:f>
+              <c:f>'Transit demand'!$E$5:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9630</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10570</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11830</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12650</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13766</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$B$5:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>192000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>161600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>161600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>136000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>126240</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123888</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126080</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>151680</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>152800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Number of weekly riders</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$E$5:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9630</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10570</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11830</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12650</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13766</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>second!$B$28:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1527,96 +1864,6 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>154647.2201539799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$C$28:$C$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>3151.0856258843269</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2621.0451726173633</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2706.167673396063</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3758.5858517338347</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2955.1616681290907</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2291.2715346701443</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2278.7801530293655</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>646.94051375990966</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>381.92028712641331</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>484.30439759013825</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-350.81424982676981</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1282.8893669451645</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2381.4259846086206</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4316.9024395857123</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-5344.2045025376719</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3608.6866959499021</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3747.0894050321076</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3876.6668836225144</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7289.5866694689612</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10982.058474938793</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10125.171045161114</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2044.0583520664368</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-7675.0393146167335</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-3291.7633401555358</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-7889.2601444825414</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8499.8010649065545</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1847.2201539798989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,172 +1878,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330641488"/>
-        <c:axId val="330637960"/>
+        <c:axId val="417525608"/>
+        <c:axId val="417529528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330641488"/>
+        <c:axId val="417525608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Monthly income of riders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="330637960"/>
+        <c:crossAx val="417529528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330637960"/>
+        <c:axId val="417529528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of weekly riders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="330641488"/>
+        <c:crossAx val="417525608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1805,7 +1967,850 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average parking rates per month Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Number of weekly riders</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$F$5:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$B$5:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>192000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>161600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>161600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>136000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>126240</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123888</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126080</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>151680</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>152800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Number of weekly riders</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$F$5:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>second!$B$28:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>188848.91437411567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187778.95482738264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188493.83232660394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181358.58585173383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179755.16166812909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180691.27153467014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178521.21984697063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174553.05948624009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174018.07971287359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173435.69560240986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173150.81424982677</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164482.88936694516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>163981.42598460862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165916.90243958571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166144.20450253767</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162808.6866959499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145052.91059496789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119572.66688362251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>139910.41333053104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139417.94152506121</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>141874.82895483889</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138044.05835206644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>133915.03931461673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>127179.76334015554</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133969.26014448254</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>143180.19893509345</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154647.2201539799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417530704"/>
+        <c:axId val="417529920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417530704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average parking rates per month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="417529920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417529920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of weekly riders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="417530704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normal Probability Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>second!$F$28:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.8518518518518519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2592592592592595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.962962962962962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.37037037037037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.074074074074073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.481481481481481</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.18518518518519</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.592592592592595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.296296296296298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.703703703703709</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57.407407407407412</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64.81481481481481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.518518518518519</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.925925925925924</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.629629629629619</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87.037037037037038</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90.740740740740733</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98.148148148148138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>second!$G$28:$G$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>115696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151680</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>161600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>161600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>163200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>172800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>173920</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>174400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>176800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>177600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>178400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>180800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>190400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>191200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>192000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417540896"/>
+        <c:axId val="417538152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417540896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample Percentile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="417538152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417538152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of weekly riders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="417540896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2096,11 +3101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330643056"/>
-        <c:axId val="330643448"/>
+        <c:axId val="328670504"/>
+        <c:axId val="328670896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330643056"/>
+        <c:axId val="328670504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,12 +3162,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330643448"/>
+        <c:crossAx val="328670896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330643448"/>
+        <c:axId val="328670896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2219,7 +3224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330643056"/>
+        <c:crossAx val="328670504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2268,7 +3273,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2581,11 +3586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330637176"/>
-        <c:axId val="332466840"/>
+        <c:axId val="332093032"/>
+        <c:axId val="332094992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330637176"/>
+        <c:axId val="332093032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,12 +3647,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332466840"/>
+        <c:crossAx val="332094992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="332466840"/>
+        <c:axId val="332094992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +3709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330637176"/>
+        <c:crossAx val="332093032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2753,7 +3758,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3064,11 +4069,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="332459784"/>
-        <c:axId val="332465664"/>
+        <c:axId val="332092640"/>
+        <c:axId val="332097344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="332459784"/>
+        <c:axId val="332092640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3125,12 +4130,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332465664"/>
+        <c:crossAx val="332097344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="332465664"/>
+        <c:axId val="332097344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3187,7 +4192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332459784"/>
+        <c:crossAx val="332092640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3236,7 +4241,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3538,11 +4543,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="332462528"/>
-        <c:axId val="332462136"/>
+        <c:axId val="332096168"/>
+        <c:axId val="332093816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="332462528"/>
+        <c:axId val="332096168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3599,12 +4604,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332462136"/>
+        <c:crossAx val="332093816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="332462136"/>
+        <c:axId val="332093816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,7 +4666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332462528"/>
+        <c:crossAx val="332096168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3702,6 +4707,3218 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Interest rates and home prices'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median home price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7495625546806648E-3"/>
+                  <c:y val="8.0599664625255182E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Interest rates and home prices'!$B$6:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Interest rates and home prices'!$C$6:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>183800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>188100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>203200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>230200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>258200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>309800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>329800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328672856"/>
+        <c:axId val="328674032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328672856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328674032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="328674032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328672856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Residuals Vs Fitted</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> values</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>first!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Residuals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>first!$B$28:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>188848.91437411567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187778.95482738264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188493.83232660394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181358.58585173383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179755.16166812909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180691.27153467014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178521.21984697063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174553.05948624009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174018.07971287359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173435.69560240986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173150.81424982677</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164482.88936694516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>163981.42598460862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165916.90243958571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166144.20450253767</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162808.6866959499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145052.91059496789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119572.66688362251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>139910.41333053104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139417.94152506121</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>141874.82895483889</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138044.05835206644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>133915.03931461673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>127179.76334015554</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133969.26014448254</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>143180.19893509345</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154647.2201539799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>first!$C$28:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3151.0856258843269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2621.0451726173633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2706.167673396063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3758.5858517338347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2955.1616681290907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2291.2715346701443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2278.7801530293655</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>646.94051375990966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381.92028712641331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>484.30439759013825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-350.81424982676981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1282.8893669451645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2381.4259846086206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4316.9024395857123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5344.2045025376719</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3608.6866959499021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3747.0894050321076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3876.6668836225144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7289.5866694689612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10982.058474938793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10125.171045161114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2044.0583520664368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7675.0393146167335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3291.7633401555358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7889.2601444825414</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8499.8010649065545</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1847.2201539798989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="328668544"/>
+        <c:axId val="328668936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="328668544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328668936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="328668936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328668544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Residuals vs Observation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>first!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Residuals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>first!$A$28:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>first!$C$28:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3151.0856258843269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2621.0451726173633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2706.167673396063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3758.5858517338347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2955.1616681290907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2291.2715346701443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2278.7801530293655</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>646.94051375990966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381.92028712641331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>484.30439759013825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-350.81424982676981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1282.8893669451645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2381.4259846086206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4316.9024395857123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5344.2045025376719</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3608.6866959499021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3747.0894050321076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3876.6668836225144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7289.5866694689612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10982.058474938793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10125.171045161114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2044.0583520664368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7675.0393146167335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3291.7633401555358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7889.2601444825414</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8499.8010649065545</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1847.2201539798989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="331512432"/>
+        <c:axId val="331511648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="331512432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331511648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="331511648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331512432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Price per week  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$C$5:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>second!$C$28:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3151.0856258843269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2621.0451726173633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2706.167673396063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3758.5858517338347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2955.1616681290907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2291.2715346701443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2278.7801530293655</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>646.94051375990966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381.92028712641331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>484.30439759013825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-350.81424982676981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1282.8893669451645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2381.4259846086206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4316.9024395857123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5344.2045025376719</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3608.6866959499021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3747.0894050321076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3876.6668836225144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7289.5866694689612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10982.058474938793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10125.171045161114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2044.0583520664368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7675.0393146167335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3291.7633401555358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7889.2601444825414</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8499.8010649065545</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1847.2201539798989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415362736"/>
+        <c:axId val="415359992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="415362736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Price per week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="415359992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="415359992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="415362736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Population of city  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$D$5:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1790000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1780000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1778000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1750000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1740000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1725000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1725000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1705000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1710000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1695000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1695000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1690000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1630000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1635000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1630000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1620000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1615000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1605000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1590000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1595000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1590000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1610000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>second!$C$28:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3151.0856258843269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2621.0451726173633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2706.167673396063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3758.5858517338347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2955.1616681290907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2291.2715346701443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2278.7801530293655</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>646.94051375990966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381.92028712641331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>484.30439759013825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-350.81424982676981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1282.8893669451645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2381.4259846086206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4316.9024395857123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5344.2045025376719</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3608.6866959499021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3747.0894050321076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3876.6668836225144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7289.5866694689612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10982.058474938793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10125.171045161114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2044.0583520664368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7675.0393146167335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3291.7633401555358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7889.2601444825414</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8499.8010649065545</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1847.2201539798989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415366264"/>
+        <c:axId val="415364696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="415366264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population of city</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="415364696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="415364696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="415366264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monthly income of riders  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$E$5:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9630</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10570</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11830</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12650</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13766</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>second!$C$28:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3151.0856258843269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2621.0451726173633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2706.167673396063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3758.5858517338347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2955.1616681290907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2291.2715346701443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2278.7801530293655</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>646.94051375990966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381.92028712641331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>484.30439759013825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-350.81424982676981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1282.8893669451645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2381.4259846086206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4316.9024395857123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5344.2045025376719</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3608.6866959499021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3747.0894050321076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3876.6668836225144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7289.5866694689612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10982.058474938793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10125.171045161114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2044.0583520664368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7675.0393146167335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3291.7633401555358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7889.2601444825414</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8499.8010649065545</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1847.2201539798989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415361560"/>
+        <c:axId val="415363912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="415361560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Monthly income of riders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="415363912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="415363912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="415361560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average parking rates per month  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$F$5:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>second!$C$28:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3151.0856258843269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2621.0451726173633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2706.167673396063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3758.5858517338347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2955.1616681290907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2291.2715346701443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2278.7801530293655</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>646.94051375990966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381.92028712641331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>484.30439759013825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-350.81424982676981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1282.8893669451645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2381.4259846086206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4316.9024395857123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5344.2045025376719</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3608.6866959499021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3747.0894050321076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3876.6668836225144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7289.5866694689612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10982.058474938793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10125.171045161114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2044.0583520664368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7675.0393146167335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3291.7633401555358</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7889.2601444825414</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8499.8010649065545</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1847.2201539798989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417536584"/>
+        <c:axId val="417535408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417536584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average parking rates per month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="417535408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417535408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="417536584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Price per week Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Number of weekly riders</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$C$5:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$B$5:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>192000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173920</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>161600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>161600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>136000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>126240</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123888</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126080</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>151680</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>152800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Number of weekly riders</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Transit demand'!$C$5:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>second!$B$28:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>188848.91437411567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187778.95482738264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188493.83232660394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181358.58585173383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179755.16166812909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180691.27153467014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178521.21984697063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174553.05948624009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174018.07971287359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173435.69560240986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173150.81424982677</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164482.88936694516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>163981.42598460862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165916.90243958571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166144.20450253767</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162808.6866959499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145052.91059496789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>119572.66688362251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>139910.41333053104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139417.94152506121</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>141874.82895483889</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138044.05835206644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>133915.03931461673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>127179.76334015554</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133969.26014448254</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>143180.19893509345</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154647.2201539799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417536192"/>
+        <c:axId val="417532272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417536192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Price per week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="417532272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417532272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of weekly riders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="417536192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3990,6 +8207,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7109,6 +11366,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7726,10 +12499,315 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>833437</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8963,10 +14041,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9277,6 +14355,12 @@
         <v>305.63877563158974</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="36">
+        <f>B17+first!B18*'Transit demand'!C5+'Transit demand'!D5*first!B19+first!B20*'Transit demand'!E5+'Transit demand'!F5*first!B21</f>
+        <v>188848.91437411567</v>
+      </c>
+    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
@@ -9589,6 +14673,12 @@
       </c>
       <c r="C54" s="33">
         <v>-1847.2201539798989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f>AVERAGE(C28:C54)</f>
+        <v>1.9941513461095317E-11</v>
       </c>
     </row>
   </sheetData>
@@ -9599,10 +14689,903 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView topLeftCell="E17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.9723643429967247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.94549241553145202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.93558194562807973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="32">
+        <v>5406.3701680351205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="32">
+        <v>4</v>
+      </c>
+      <c r="C12" s="32">
+        <v>11154120959.187813</v>
+      </c>
+      <c r="D12" s="32">
+        <v>2788530239.7969532</v>
+      </c>
+      <c r="E12" s="32">
+        <v>95.403389016873732</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1.4386230749298869E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="32">
+        <v>22</v>
+      </c>
+      <c r="C13" s="32">
+        <v>643034444.66404212</v>
+      </c>
+      <c r="D13" s="32">
+        <v>29228838.393820096</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="33">
+        <v>26</v>
+      </c>
+      <c r="C14" s="33">
+        <v>11797155403.851854</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="32">
+        <v>100222.56066171579</v>
+      </c>
+      <c r="C17" s="32">
+        <v>135917.8740467575</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.73737587027912121</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0.46868594035493305</v>
+      </c>
+      <c r="F17" s="32">
+        <v>-181653.85777062614</v>
+      </c>
+      <c r="G17" s="32">
+        <v>382098.97909405775</v>
+      </c>
+      <c r="H17" s="32">
+        <v>-181653.85777062614</v>
+      </c>
+      <c r="I17" s="32">
+        <v>382098.97909405775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="32">
+        <v>-689.52272281917146</v>
+      </c>
+      <c r="C18" s="32">
+        <v>95.402867283151068</v>
+      </c>
+      <c r="D18" s="32">
+        <v>-7.227484272277704</v>
+      </c>
+      <c r="E18" s="32">
+        <v>3.0523499772437099E-7</v>
+      </c>
+      <c r="F18" s="32">
+        <v>-887.37615987852064</v>
+      </c>
+      <c r="G18" s="32">
+        <v>-491.66928575982234</v>
+      </c>
+      <c r="H18" s="32">
+        <v>-887.37615987852064</v>
+      </c>
+      <c r="I18" s="32">
+        <v>-491.66928575982234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="32">
+        <v>5.4941280009836287E-2</v>
+      </c>
+      <c r="C19" s="32">
+        <v>7.2339148634055953E-2</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0.75949580617501122</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0.45561780315595468</v>
+      </c>
+      <c r="F19" s="32">
+        <v>-9.5080932097438647E-2</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0.20496349211711121</v>
+      </c>
+      <c r="H19" s="32">
+        <v>-9.5080932097438647E-2</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0.20496349211711121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="32">
+        <v>-1.3013668665867064</v>
+      </c>
+      <c r="C20" s="32">
+        <v>1.627450021412028</v>
+      </c>
+      <c r="D20" s="32">
+        <v>-0.79963553378898766</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0.43247165513329455</v>
+      </c>
+      <c r="F20" s="32">
+        <v>-4.6764916353529413</v>
+      </c>
+      <c r="G20" s="32">
+        <v>2.0737579021795289</v>
+      </c>
+      <c r="H20" s="32">
+        <v>-4.6764916353529413</v>
+      </c>
+      <c r="I20" s="32">
+        <v>2.0737579021795289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="33">
+        <v>152.4563672637006</v>
+      </c>
+      <c r="C21" s="33">
+        <v>73.86296236669105</v>
+      </c>
+      <c r="D21" s="33">
+        <v>2.0640434986459697</v>
+      </c>
+      <c r="E21" s="33">
+        <v>5.1003698192174263E-2</v>
+      </c>
+      <c r="F21" s="33">
+        <v>-0.72604110418856749</v>
+      </c>
+      <c r="G21" s="33">
+        <v>305.63877563158974</v>
+      </c>
+      <c r="H21" s="33">
+        <v>-0.72604110418856749</v>
+      </c>
+      <c r="I21" s="33">
+        <v>305.63877563158974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>1</v>
+      </c>
+      <c r="B28" s="32">
+        <v>188848.91437411567</v>
+      </c>
+      <c r="C28" s="32">
+        <v>3151.0856258843269</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0.63362128827134023</v>
+      </c>
+      <c r="F28" s="32">
+        <v>1.8518518518518519</v>
+      </c>
+      <c r="G28" s="32">
+        <v>115696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>2</v>
+      </c>
+      <c r="B29" s="32">
+        <v>187778.95482738264</v>
+      </c>
+      <c r="C29" s="32">
+        <v>2621.0451726173633</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0.52704058729762848</v>
+      </c>
+      <c r="F29" s="32">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="G29" s="32">
+        <v>123888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>3</v>
+      </c>
+      <c r="B30" s="32">
+        <v>188493.83232660394</v>
+      </c>
+      <c r="C30" s="32">
+        <v>2706.167673396063</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0.54415704651448693</v>
+      </c>
+      <c r="F30" s="32">
+        <v>9.2592592592592595</v>
+      </c>
+      <c r="G30" s="32">
+        <v>126080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>4</v>
+      </c>
+      <c r="B31" s="32">
+        <v>181358.58585173383</v>
+      </c>
+      <c r="C31" s="32">
+        <v>-3758.5858517338347</v>
+      </c>
+      <c r="D31" s="32">
+        <v>-0.75577762466726695</v>
+      </c>
+      <c r="F31" s="32">
+        <v>12.962962962962962</v>
+      </c>
+      <c r="G31" s="32">
+        <v>126240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="32">
+        <v>179755.16166812909</v>
+      </c>
+      <c r="C32" s="32">
+        <v>-2955.1616681290907</v>
+      </c>
+      <c r="D32" s="32">
+        <v>-0.59422483725257325</v>
+      </c>
+      <c r="F32" s="32">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G32" s="32">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>6</v>
+      </c>
+      <c r="B33" s="32">
+        <v>180691.27153467014</v>
+      </c>
+      <c r="C33" s="32">
+        <v>-2291.2715346701443</v>
+      </c>
+      <c r="D33" s="32">
+        <v>-0.46072960050703543</v>
+      </c>
+      <c r="F33" s="32">
+        <v>20.37037037037037</v>
+      </c>
+      <c r="G33" s="32">
+        <v>147200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>7</v>
+      </c>
+      <c r="B34" s="32">
+        <v>178521.21984697063</v>
+      </c>
+      <c r="C34" s="32">
+        <v>2278.7801530293655</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0.45821782955974544</v>
+      </c>
+      <c r="F34" s="32">
+        <v>24.074074074074073</v>
+      </c>
+      <c r="G34" s="32">
+        <v>148800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>8</v>
+      </c>
+      <c r="B35" s="32">
+        <v>174553.05948624009</v>
+      </c>
+      <c r="C35" s="32">
+        <v>646.94051375990966</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0.13008700188794051</v>
+      </c>
+      <c r="F35" s="32">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="G35" s="32">
+        <v>150400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
+        <v>9</v>
+      </c>
+      <c r="B36" s="32">
+        <v>174018.07971287359</v>
+      </c>
+      <c r="C36" s="32">
+        <v>381.92028712641331</v>
+      </c>
+      <c r="D36" s="32">
+        <v>7.6796651401081745E-2</v>
+      </c>
+      <c r="F36" s="32">
+        <v>31.481481481481481</v>
+      </c>
+      <c r="G36" s="32">
+        <v>151680</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <v>10</v>
+      </c>
+      <c r="B37" s="32">
+        <v>173435.69560240986</v>
+      </c>
+      <c r="C37" s="32">
+        <v>484.30439759013825</v>
+      </c>
+      <c r="D37" s="32">
+        <v>9.738408052000154E-2</v>
+      </c>
+      <c r="F37" s="32">
+        <v>35.18518518518519</v>
+      </c>
+      <c r="G37" s="32">
+        <v>152000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>11</v>
+      </c>
+      <c r="B38" s="32">
+        <v>173150.81424982677</v>
+      </c>
+      <c r="C38" s="32">
+        <v>-350.81424982676981</v>
+      </c>
+      <c r="D38" s="32">
+        <v>-7.0541839641948684E-2</v>
+      </c>
+      <c r="F38" s="32">
+        <v>38.888888888888893</v>
+      </c>
+      <c r="G38" s="32">
+        <v>152800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>12</v>
+      </c>
+      <c r="B39" s="32">
+        <v>164482.88936694516</v>
+      </c>
+      <c r="C39" s="32">
+        <v>-1282.8893669451645</v>
+      </c>
+      <c r="D39" s="32">
+        <v>-0.25796379721204021</v>
+      </c>
+      <c r="F39" s="32">
+        <v>42.592592592592595</v>
+      </c>
+      <c r="G39" s="32">
+        <v>159200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
+        <v>13</v>
+      </c>
+      <c r="B40" s="32">
+        <v>163981.42598460862</v>
+      </c>
+      <c r="C40" s="32">
+        <v>-2381.4259846086206</v>
+      </c>
+      <c r="D40" s="32">
+        <v>-0.47885788564285431</v>
+      </c>
+      <c r="F40" s="32">
+        <v>46.296296296296298</v>
+      </c>
+      <c r="G40" s="32">
+        <v>160800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>14</v>
+      </c>
+      <c r="B41" s="32">
+        <v>165916.90243958571</v>
+      </c>
+      <c r="C41" s="32">
+        <v>-4316.9024395857123</v>
+      </c>
+      <c r="D41" s="32">
+        <v>-0.86804409967258689</v>
+      </c>
+      <c r="F41" s="32">
+        <v>50</v>
+      </c>
+      <c r="G41" s="32">
+        <v>161600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>15</v>
+      </c>
+      <c r="B42" s="32">
+        <v>166144.20450253767</v>
+      </c>
+      <c r="C42" s="32">
+        <v>-5344.2045025376719</v>
+      </c>
+      <c r="D42" s="32">
+        <v>-1.074614321447741</v>
+      </c>
+      <c r="F42" s="32">
+        <v>53.703703703703709</v>
+      </c>
+      <c r="G42" s="32">
+        <v>161600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>16</v>
+      </c>
+      <c r="B43" s="32">
+        <v>162808.6866959499</v>
+      </c>
+      <c r="C43" s="32">
+        <v>-3608.6866959499021</v>
+      </c>
+      <c r="D43" s="32">
+        <v>-0.72563585529787811</v>
+      </c>
+      <c r="F43" s="32">
+        <v>57.407407407407412</v>
+      </c>
+      <c r="G43" s="32">
+        <v>163200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
+        <v>17</v>
+      </c>
+      <c r="B44" s="32">
+        <v>145052.91059496789</v>
+      </c>
+      <c r="C44" s="32">
+        <v>3747.0894050321076</v>
+      </c>
+      <c r="D44" s="32">
+        <v>0.75346591555030296</v>
+      </c>
+      <c r="F44" s="32">
+        <v>61.111111111111114</v>
+      </c>
+      <c r="G44" s="32">
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
+        <v>18</v>
+      </c>
+      <c r="B45" s="32">
+        <v>119572.66688362251</v>
+      </c>
+      <c r="C45" s="32">
+        <v>-3876.6668836225144</v>
+      </c>
+      <c r="D45" s="32">
+        <v>-0.7795213956810163</v>
+      </c>
+      <c r="F45" s="32">
+        <v>64.81481481481481</v>
+      </c>
+      <c r="G45" s="32">
+        <v>173920</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="32">
+        <v>19</v>
+      </c>
+      <c r="B46" s="32">
+        <v>139910.41333053104</v>
+      </c>
+      <c r="C46" s="32">
+        <v>7289.5866694689612</v>
+      </c>
+      <c r="D46" s="32">
+        <v>1.4657923791513192</v>
+      </c>
+      <c r="F46" s="32">
+        <v>68.518518518518519</v>
+      </c>
+      <c r="G46" s="32">
+        <v>174400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
+        <v>20</v>
+      </c>
+      <c r="B47" s="32">
+        <v>139417.94152506121</v>
+      </c>
+      <c r="C47" s="32">
+        <v>10982.058474938793</v>
+      </c>
+      <c r="D47" s="32">
+        <v>2.2082757706113014</v>
+      </c>
+      <c r="F47" s="32">
+        <v>72.222222222222214</v>
+      </c>
+      <c r="G47" s="32">
+        <v>175200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="32">
+        <v>21</v>
+      </c>
+      <c r="B48" s="32">
+        <v>141874.82895483889</v>
+      </c>
+      <c r="C48" s="32">
+        <v>10125.171045161114</v>
+      </c>
+      <c r="D48" s="32">
+        <v>2.0359725768487147</v>
+      </c>
+      <c r="F48" s="32">
+        <v>75.925925925925924</v>
+      </c>
+      <c r="G48" s="32">
+        <v>176800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="32">
+        <v>22</v>
+      </c>
+      <c r="B49" s="32">
+        <v>138044.05835206644</v>
+      </c>
+      <c r="C49" s="32">
+        <v>-2044.0583520664368</v>
+      </c>
+      <c r="D49" s="32">
+        <v>-0.41101989603175332</v>
+      </c>
+      <c r="F49" s="32">
+        <v>79.629629629629619</v>
+      </c>
+      <c r="G49" s="32">
+        <v>177600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>23</v>
+      </c>
+      <c r="B50" s="32">
+        <v>133915.03931461673</v>
+      </c>
+      <c r="C50" s="32">
+        <v>-7675.0393146167335</v>
+      </c>
+      <c r="D50" s="32">
+        <v>-1.5432993182138164</v>
+      </c>
+      <c r="F50" s="32">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G50" s="32">
+        <v>178400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>24</v>
+      </c>
+      <c r="B51" s="32">
+        <v>127179.76334015554</v>
+      </c>
+      <c r="C51" s="32">
+        <v>-3291.7633401555358</v>
+      </c>
+      <c r="D51" s="32">
+        <v>-0.66190880728237167</v>
+      </c>
+      <c r="F51" s="32">
+        <v>87.037037037037038</v>
+      </c>
+      <c r="G51" s="32">
+        <v>180800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="32">
+        <v>25</v>
+      </c>
+      <c r="B52" s="32">
+        <v>133969.26014448254</v>
+      </c>
+      <c r="C52" s="32">
+        <v>-7889.2601444825414</v>
+      </c>
+      <c r="D52" s="32">
+        <v>-1.5863749100286328</v>
+      </c>
+      <c r="F52" s="32">
+        <v>90.740740740740733</v>
+      </c>
+      <c r="G52" s="32">
+        <v>190400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="32">
+        <v>26</v>
+      </c>
+      <c r="B53" s="32">
+        <v>143180.19893509345</v>
+      </c>
+      <c r="C53" s="32">
+        <v>8499.8010649065545</v>
+      </c>
+      <c r="D53" s="32">
+        <v>1.7091426702455157</v>
+      </c>
+      <c r="F53" s="32">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="G53" s="32">
+        <v>191200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="33">
+        <v>27</v>
+      </c>
+      <c r="B54" s="33">
+        <v>154647.2201539799</v>
+      </c>
+      <c r="C54" s="33">
+        <v>-1847.2201539798989</v>
+      </c>
+      <c r="D54" s="33">
+        <v>-0.37143960927975511</v>
+      </c>
+      <c r="F54" s="33">
+        <v>98.148148148148138</v>
+      </c>
+      <c r="G54" s="33">
+        <v>192000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G28:G54">
+    <sortCondition ref="G28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10339,6 +16322,15 @@
       <c r="G32" s="22"/>
       <c r="H32" s="21"/>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="37">
+        <f>MAX(B5:B31)-MIN(B5:B31)</f>
+        <v>76304</v>
+      </c>
+    </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
